--- a/pred_ohlcv/54_21/2020-01-26 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 LINK ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-10843.21727065845</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-11131.13537065845</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11131.13537065845</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11728.43377065845</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11728.43377065845</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11728.43377065845</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-12859.62677065845</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-13256.23277065845</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-13262.91137065845</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-18661.35457065845</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-18903.92197065845</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-18776.17497065845</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-18565.54567065845</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-18565.54567065845</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16718.45437065845</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16498.60277065845</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-16254.32327065845</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-16254.32327065845</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-16409.72217065845</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-16409.72217065845</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-16281.94647065845</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-18294.74137065845</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17770.55457065845</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-78281.81083036197</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-78308.91013036197</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-78371.73023036197</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-78380.75063036196</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-77333.00083036195</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-77337.00083036195</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-77509.11473036195</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-77526.11473036195</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-77535.11473036195</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-77686.85593036195</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-77711.10613036195</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-74260.73918087018</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-74243.54438087018</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-74243.54438087018</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-71739.97118087018</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-71787.01378087018</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-71903.99758087019</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-71890.71308087019</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-71891.71308087019</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-73140.22198087018</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-75293.71158087018</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-75292.71158087018</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-78794.71088059006</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-82395.91088059006</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-82394.91088059006</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 LINK ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-6895.551070658454</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11391.42727065845</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-11050.93077065846</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-11131.13537065845</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11728.43377065845</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11728.43377065845</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11728.43377065845</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-13256.23277065845</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-13262.91137065845</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-13262.91137065845</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19005.01547065845</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-18661.35457065845</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-18903.92197065845</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-18565.54567065845</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-18565.54567065845</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-17474.69857065845</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16718.45437065845</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16498.60277065845</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-16254.32327065845</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-16254.32327065845</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-16409.72217065845</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-16409.72217065845</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-16281.94647065845</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-18294.74137065845</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17770.55457065845</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-22033.67017065845</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-27341.90023036201</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-26449.87443036201</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-25662.16123036201</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-26824.14953036201</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-78281.81083036197</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-78308.91013036197</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-78371.73023036197</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-78380.75063036196</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-77333.00083036195</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-77337.00083036195</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-77509.11473036195</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-77526.11473036195</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-77535.11473036195</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-77686.85593036195</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-77711.10613036195</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-74260.73918087018</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-74243.54438087018</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-74243.54438087018</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-71739.97118087018</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-71787.01378087018</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-71803.99758087019</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-71903.99758087019</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-71890.71308087019</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-71891.71308087019</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-71891.71308087019</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-72392.10868087018</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-72402.10868087018</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-73142.22198087018</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-73140.22198087018</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-75293.71158087018</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-75292.71158087018</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-78794.71088059006</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-82395.91088059006</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
